--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vv21122\Dropbox\BIG_UK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarasgrendash/Library/CloudStorage/GoogleDrive-hrendash@globtalent.org/My Drive/Web/globtalent-map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6125F77F-BF5E-48E1-883B-339416FB168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE93B1-4BA1-7E40-92AD-D2117954F080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21105" windowHeight="11325" xr2:uid="{F678B25C-8C70-49CD-BD59-1445232AE03B}"/>
+    <workbookView xWindow="2480" yWindow="3340" windowWidth="25560" windowHeight="14980" xr2:uid="{F678B25C-8C70-49CD-BD59-1445232AE03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
   <si>
     <t>BIG students</t>
   </si>
@@ -217,13 +216,19 @@
   </si>
   <si>
     <t>EXCL</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Honduras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +254,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -303,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +326,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,16 +664,16 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -675,7 +687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -685,11 +697,11 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -699,11 +711,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -713,11 +725,11 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -727,11 +739,11 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -741,11 +753,11 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -755,11 +767,11 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -769,11 +781,11 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -783,11 +795,11 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -797,11 +809,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -811,126 +823,150 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -941,22 +977,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -964,52 +1000,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -1030,9 +1066,9 @@
       <selection activeCell="E15" sqref="E1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1040,7 +1076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>56</v>
       </c>
@@ -1048,7 +1084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1064,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1072,7 +1108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -1096,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1128,7 +1164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1136,7 +1172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1144,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -1152,7 +1188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarasgrendash/Library/CloudStorage/GoogleDrive-hrendash@globtalent.org/My Drive/Web/globtalent-map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEE93B1-4BA1-7E40-92AD-D2117954F080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB03683D-2C73-D149-98FE-1A5A7121444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="3340" windowWidth="25560" windowHeight="14980" xr2:uid="{F678B25C-8C70-49CD-BD59-1445232AE03B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>BIG students</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Honduras</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -833,6 +836,9 @@
       </c>
       <c r="B12" t="s">
         <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>6</v>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarasgrendash/Library/CloudStorage/GoogleDrive-hrendash@globtalent.org/My Drive/Web/globtalent-map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB03683D-2C73-D149-98FE-1A5A7121444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B2FF5C-6D15-0148-81F9-D00F5BCC6251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="3340" windowWidth="25560" windowHeight="14980" xr2:uid="{F678B25C-8C70-49CD-BD59-1445232AE03B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>BIG students</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,6 +894,9 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>

--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarasgrendash/Library/CloudStorage/GoogleDrive-hrendash@globtalent.org/My Drive/Web/globtalent-map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarasgrendash/Library/CloudStorage/GoogleDrive-hrendash@globtalent.org/My Drive/Globtalent Web/globtalent-map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B2FF5C-6D15-0148-81F9-D00F5BCC6251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BAB331-0988-9C42-AA8C-A7BDDFBAE16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="3340" windowWidth="25560" windowHeight="14980" xr2:uid="{F678B25C-8C70-49CD-BD59-1445232AE03B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>BIG students</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Tunisia</t>
   </si>
   <si>
-    <t>Salvador</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -179,24 +176,6 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -228,13 +207,46 @@
   </si>
   <si>
     <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Peru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +280,19 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -333,6 +358,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4754C4C4-7D07-426A-9C14-98BC07BB0482}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -680,7 +707,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -690,12 +717,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>32</v>
+      <c r="A2" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -708,8 +735,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
+      <c r="A3" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -718,12 +745,12 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
+      <c r="A4" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -736,8 +763,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
+      <c r="A5" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -750,8 +777,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -760,12 +787,12 @@
         <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
+      <c r="A7" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -774,12 +801,12 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -788,12 +815,12 @@
         <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
+      <c r="A9" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -806,8 +833,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -816,12 +843,12 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>37</v>
+      <c r="A11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -834,22 +861,22 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>35</v>
+      <c r="A12" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>43</v>
+      <c r="A13" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -859,8 +886,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
+      <c r="A14" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -870,8 +897,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
+      <c r="A15" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -881,8 +908,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
+      <c r="A16" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -892,95 +919,95 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
+      <c r="A17" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>6</v>
+      <c r="A18" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>9</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>41</v>
+      <c r="A20" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
+      <c r="A22" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>11</v>
+      <c r="A23" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>8</v>
+      <c r="A24" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>42</v>
+      <c r="A25" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>5</v>
+      <c r="A26" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>16</v>
+      <c r="A27" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>40</v>
+      <c r="A28" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>4</v>
+      <c r="A29" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -990,76 +1017,121 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
+      <c r="A30" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>39</v>
+      <c r="A31" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>46</v>
+      <c r="A32" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>34</v>
+      <c r="A33" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1082,15 +1154,15 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1173,28 +1245,28 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
